--- a/posts/psycho_phys_graphs/Discontinuity Measures and Z scores.xlsx
+++ b/posts/psycho_phys_graphs/Discontinuity Measures and Z scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c8ea0e04da9d5f3/Desktop/semester_spring_2024/reu_journal/cmiller_reu_presentation/cm_nsf_reu_didactics/posts/psycho_phys_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{9C113654-D6AE-41CC-9AFF-F0A37F28BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC0DB762-01FA-45C0-B513-C9284EE1758A}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{9C113654-D6AE-41CC-9AFF-F0A37F28BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3A874F-F402-4010-BF7D-DCAC69B603A4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{39E50244-3C3D-4828-BDFE-E4DFA2439248}"/>
   </bookViews>
@@ -341,8 +341,2866 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SEPARATE GROUPS'!$K$2:$K$343</c:f>
+              <c:strCache>
+                <c:ptCount val="342"/>
+                <c:pt idx="0">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Child Aggressive </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>Parent Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>Both Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>Child Aggressive</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>Neither</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>Neither</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SEPARATE GROUPS'!$L$2:$L$343</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="342"/>
+                <c:pt idx="0">
+                  <c:v>-0.21462326716310201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11797863381663098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.329687243522053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78658161789188707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41970906648830797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.236409131090126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63294826574677199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11860968012314499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7400780930702981E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86201422605980638</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1764122570762319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.297610890159</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.823262038425705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4997457418269999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.19064310617527003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.30034636476703902</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98715321880559725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.2643296517409669</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.26884385015246992</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.84381035609650301</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.930738338755424</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26884385015246992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25855336071645207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2255536212694058E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48485118522021003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.11283338909862295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.31063685420306003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.167685018394504</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.20947802244509295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.49577272096273506</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0906891594723001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.81293888778843992</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.2886582519199958E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7695826329835729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.28491063061301203</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.86715947077781586</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.60722204215672693</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2209733969361001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.11346443540512696</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.98953032771433302</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.4654750914031611</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.29520112004903071</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4051666249392025E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.71352611863270299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7808951956266401</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2060788403293099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39223678029604025</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.60722204215672693</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.416432414333038</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.55237041286084598</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-4.3177071955225022E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.43854398275812201</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.14433590371319169</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8626779335675581</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.21976851188111068</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.6816676072557016E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.8055993460096329</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1277279457054079</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.30034636476703902</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.11346443540512696</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.1352829605334001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.67750940560663597</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7672055240748379</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.3177071955225022E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-3.3193967540860303</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.384067904636993E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.33976225990888709</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.21739140297237597</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0934572952815729</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.67513229669790098</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.872304715495825</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.1688899034494931</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3809568788542101</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.45876659593086</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9689820100435371</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.8612806109254012E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6660466923168644</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.8141764340446698</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.39398284289826141</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0576233941034401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.62028066740201893</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.431835487285823</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.68265465032464601</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0077341976776351</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.16253977367649408</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21739140297237597</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.141958794804456</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.36548848349894092</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.4051666249392025E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.7198762484057009</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46427020634817096</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-7.4048540263281601E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.82322937722446576</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.29126076038601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.52941232508007297</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.2252410226585008E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.2643296517409669</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.48208304941093405</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48485118522021003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.329687243522053</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4448941125311219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3643162596451943</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.7762911284558669</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.16491688258523002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.58664106328469001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.19918753300907299</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.62028066740201893</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.901430121201658</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.55513854867011991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.39912808761627078</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.21462326716310201</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.30311450057631506</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.40941857705229101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.20433277772708403</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.29796925585830403</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.43063060223084204</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.57536116184286</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.5215316057540251</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.47970594050220106</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.42034011279481487</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-3.2886582519199958E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.4244959455070219</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-2.307901379595021</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-3.8680059901335011</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-2.3987697219169739</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.4369807320038319</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.4369807320038319</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.26884385015246992</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.977045541217517</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.57295139173287701</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.4575617108758769</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.778668237364604</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.6866276711889072</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-6.3758050827262991E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-1.1609765229222073</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.99467557243234206</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.5009506268819921</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.97923983827831307</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.10831919068711993</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.84657849190577705</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-0.50091796568074287</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.69571327556993801</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.26884385015246992</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.48485118522021003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-0.26947489645897493</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.098602539999582</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.59178630800269894</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.7490016541115279</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.6305711568380391</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2.297610890159</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.60722204215672693</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.1392233201964173</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.354025770209168</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.9780676144245599</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.43577584694885096</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.746624545202792</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-3.8031827237215987E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.36311137459020493</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.57635057384866284</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.31855023473034211</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.25340811599844304</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.29005587533102195</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.83866511137849398</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.2546025648720009E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.11797863381663098</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.2252410226585008E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.45635682582088799</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.44883447219414296</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-2.1621814079771937</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.74779676905654668</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.33976225990888709</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.6775420668078729</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1.9358835834734349</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.083166805845555</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.9283612298466939</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.76600063901984805</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-0.14433590371319169</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.9729223697065519</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-6.3758050827262991E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.3180090571831098</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1534541692954638</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.9986485932966032</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.55853773078590985</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-3.6417081656297432</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.71629425444197803</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-5.3467561391244978E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.196192079056569E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.50883134620803394</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-0.75294201377455505</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.400332972671259</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.27344791732324</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.4757655808391781</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-0.28491063061301203</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-2.2221782819910891</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.18826599726654203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.48485118522021003</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.344276458320389</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.1534541692954638</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-2.016461436359366</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2.375811634136193</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-1.29126076038601</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-0.4254853575128229</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.31340499001233202</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-1.9204478493194119</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.49514167465622794</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.2300916625183698</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-0.58149581856667198</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-0.15925103442885299</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.2255536212694058E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.932822192948083</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.083166805845555</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.416432414333038</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-0.83866511137849398</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.62080127084038705</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-0.49577272096273506</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.0883120505635639</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.57057428282414702</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-0.4460663363848697</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.47062033612117</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.3094646303493129</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.17283026311251298</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.4409537528680971</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-0.10831919068711993</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>9.2252410226585008E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.901430121201658</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-0.80779364307043211</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.5803235947129279</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.26884385015246992</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-0.12890016955916406</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-0.61925859419496998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-0.39635995180699801</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.384067904636993E-3</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.691772915906919</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.52941232508007297</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-0.19404228829106396</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-1.030692285458404</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.152769887678842</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.4551846019671411</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-0.43577584694885096</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-0.360343238780932</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-0.62780302102876506</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-0.11346443540512696</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-0.10831919068711993</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.70085852028794804</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.3249003645033399</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1.696918160624928</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.551198189007098</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-8.9484274417310994E-2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.93055552690749987</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.92715634479170594</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.24311762656242281</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-0.22151457448333023</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-1.5381395637618041</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.90657536591966703</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.08883265400193</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-0.19578835089328006</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-0.99467557243234206</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1.148308924577454</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-0.21462326716310201</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-1.2758250262319757</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-1.1971518446890499</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-1.5175585848897599</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-0.33976225990888709</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.18826599726654203</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-0.96380410412428008</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.18312075254853299</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-1.0512732643304401</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1.842638132242755</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.22768189240839501</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>8.7107165508574808E-2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.872304715495825</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-1.251844865244151</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-0.66207367145260898</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-0.46150207053889791</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1.6866276711889072</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-0.98438508299632399</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-0.59178630800269894</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-1.4935784239019427</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.48999642993821901</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.18312075254853299</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.6763371817528898</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-4.8322316673234944E-2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-0.939823943136461</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-1.059817691164243</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1.0883120505635639</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-0.91924296426442309</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.25340811599844304</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-1.130105054614152</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-1.1198145651781282</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-2.5702159171248486</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.63571640155604903</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-2.0267519257953897</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-3.6211271867577</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-0.49577272096273506</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.62080127084038705</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-0.81293888778843992</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-0.46150207053889791</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-0.96380410412428008</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.32369547944835197</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-0.96380410412428008</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-1.2758250262319757</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1.239177266899403</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-7.0649358147489849E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.56542903810613898</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-0.59693155272070775</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.54484805923410007</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.18312075254853299</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.0574405822555071</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-0.55751565757885302</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.39912808761627078</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.38369235346224229</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.25855336071645207</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-0.19404228829106396</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.691772915906919</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-0.33976225990888709</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-0.47693780469292596</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-0.73236103490251192</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2.5009506268819921</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.22768189240839501</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.39398284289826141</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-0.939823943136461</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-0.49577272096273506</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-0.360343238780932</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-1.6787142906616261</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-0.44266715426908987</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-0.18375179885504012</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-0.16491688258523002</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-0.96894934884228789</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-0.33976225990888709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-133E-42D9-A955-F44BDC0FB6F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1564357407"/>
+        <c:axId val="1564356447"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1564357407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564356447"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1564356447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564357407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1053703</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052CCAB9-47B1-8D56-D85C-D1ECE5EEE1E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,8 +3555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F2E162-F49E-4027-9BCC-86917ACD0182}">
   <dimension ref="D1:V343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19147,8 +22005,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>